--- a/static/database/inst.xlsx
+++ b/static/database/inst.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Seafile\pz\github\hes\static\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\instrument manage\hes\static\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="708">
   <si>
     <t>IMAGE</t>
   </si>
@@ -2148,6 +2148,9 @@
   </si>
   <si>
     <t>PI_EN</t>
+  </si>
+  <si>
+    <t>Oven.</t>
   </si>
 </sst>
 </file>
@@ -2678,7 +2681,7 @@
   <dimension ref="A1:M178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3164,6 +3167,9 @@
       <c r="K12" s="3" t="s">
         <v>570</v>
       </c>
+      <c r="L12" s="3" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" ht="30">
       <c r="A13" s="3">
